--- a/4 четверть_1_HTML_CSS_свойства 1 - шрифт, icons, текст align.xlsx
+++ b/4 четверть_1_HTML_CSS_свойства 1 - шрифт, icons, текст align.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Machenike\Desktop\Homework_repo\GB_Developer_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389D8296-534C-439B-81CC-622DFB08635C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F219A8-43C8-4E89-90A5-188CDF044559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" tabRatio="825" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1999,85 +1999,6 @@
     <r>
       <rPr>
         <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Скрыть текст, который превышает текущее значение height</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-/* Keyword values */
-overflow: visible;
-overflow: hidden; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>//Скрыть текст</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-overflow: clip;
-overflow: scroll; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>//установить scrollbar</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-overflow: auto;
-overflow: hidden visible;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -3558,6 +3479,97 @@
   </si>
   <si>
     <t>В зависимости от свойств каждого отдельного шрифта, разработанного дизайнером</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Скрыть текст, который превышает текущее значение height</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+/* Keyword values */
+overflow: visible;
+overflow: hidden; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//Скрыть текст ИЛИ убирает полосу прокрутки на странице</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+overflow: clip;
+overflow: scroll; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//установить scrollbar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+overflow: auto;
+overflow: hidden visible;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -3831,7 +3843,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -3929,6 +3941,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5221,8 +5236,8 @@
   </sheetPr>
   <dimension ref="A1:V9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5351,8 +5366,8 @@
       <c r="B8" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C8" s="29" t="s">
-        <v>202</v>
+      <c r="C8" s="34" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="87" x14ac:dyDescent="0.35">
@@ -5578,12 +5593,12 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B5" s="31" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>187</v>
@@ -5596,7 +5611,7 @@
     </row>
     <row r="7" spans="1:22" ht="87" x14ac:dyDescent="0.35">
       <c r="C7" s="30" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
@@ -5604,138 +5619,138 @@
         <v>189</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="203" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="159.5" x14ac:dyDescent="0.35">
       <c r="C11" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="159.5" x14ac:dyDescent="0.35">
       <c r="B12" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B14" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
       <c r="B15" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>242</v>
+      </c>
+      <c r="D15" s="31" t="s">
         <v>241</v>
-      </c>
-      <c r="C15" s="31" t="s">
-        <v>243</v>
-      </c>
-      <c r="D15" s="31" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
       <c r="B16" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
       <c r="B17" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="32" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A19" s="31"/>
       <c r="C19" s="31" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A20" s="17" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C20" s="31"/>
     </row>
     <row r="21" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A21" s="31"/>
       <c r="B21" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="C21" s="31" t="s">
         <v>216</v>
-      </c>
-      <c r="C21" s="31" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C23" s="31" t="s">
         <v>220</v>
-      </c>
-      <c r="C23" s="31" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C24" s="31" t="s">
         <v>222</v>
-      </c>
-      <c r="C24" s="31" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -5743,40 +5758,40 @@
         <v>35</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C25" s="31" t="s">
         <v>227</v>
       </c>
-      <c r="C25" s="31" t="s">
+      <c r="D25" s="1" t="s">
         <v>228</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C26" s="31" t="s">
         <v>230</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C26" s="31" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A27" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C27" s="31" t="s">
         <v>237</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C27" s="31" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="C28" s="31" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
@@ -5916,7 +5931,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
